--- a/biology/Médecine/Raoul_Anthony/Raoul_Anthony.xlsx
+++ b/biology/Médecine/Raoul_Anthony/Raoul_Anthony.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raoul Anthony, né le 12 octobre 1874 à Châteaulin et mort le 1er septembre 1941 à Quimper, est un médecin français, médecin militaire, anthropologue, professeur d'université.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raoul Anthony nait le 12 octobre 1874 à Châteaulin[2]. Son père Louis Anthony est vétérinaire[3]. Il effectue ses études secondaires au lycée de Quimper. Il étudie la médecine militaire à l'École du service de santé des armées de Lyon.  
-En 1898, il obtient son doctorat en médecine, encadré par le professeur Léo Testut[4]. 
-À partir de 1899 il devient membre de la Société d'anthropologie de Paris[5].
-En 1903, il quitte l'armée pour prendre un poste de préparateur au laboratoire d’Anatomie comparée du Muséum national d'histoire naturelle[3].
-En 1922, il devient professeur titulaire de la chaire d’Anatomie comparée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raoul Anthony nait le 12 octobre 1874 à Châteaulin. Son père Louis Anthony est vétérinaire. Il effectue ses études secondaires au lycée de Quimper. Il étudie la médecine militaire à l'École du service de santé des armées de Lyon.  
+En 1898, il obtient son doctorat en médecine, encadré par le professeur Léo Testut. 
+À partir de 1899 il devient membre de la Société d'anthropologie de Paris.
+En 1903, il quitte l'armée pour prendre un poste de préparateur au laboratoire d’Anatomie comparée du Muséum national d'histoire naturelle.
+En 1922, il devient professeur titulaire de la chaire d’Anatomie comparée.
 En plus de l'anthropologie, il connaissait bien la zoologie, les langues et l'histoire.
 Le 1er septembre 1941, il décède à Quimper et est inhumé à Châteaulin.
 Il est aussi le traducteur du Léviathan de Thomas Hobbes en français.
@@ -551,9 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur
-Traducteur
-Thomas Hobbes, Leviathan ou la Matière, la Forme et la Puissance d'un État ecclésiastique et civil : Traduction française en partie double d'après les textes anglais et latin originaux. Tome premier - De l'Homme, Paris, Marcel Giard, 1921 (lire en ligne)</t>
+          <t>Traducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thomas Hobbes, Leviathan ou la Matière, la Forme et la Puissance d'un État ecclésiastique et civil : Traduction française en partie double d'après les textes anglais et latin originaux. Tome premier - De l'Homme, Paris, Marcel Giard, 1921 (lire en ligne)</t>
         </is>
       </c>
     </row>
